--- a/Mercastock/Resources/TABLASMERCASTOCK.xlsx
+++ b/Mercastock/Resources/TABLASMERCASTOCK.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\aimee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\MercastockVSTO\Mercastock\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -64,10 +64,10 @@
     <t>Detalle por Departamento</t>
   </si>
   <si>
-    <t>Producto alerta</t>
+    <t>Sucursal :</t>
   </si>
   <si>
-    <t>Sucursal :</t>
+    <t>Producto Alerta</t>
   </si>
 </sst>
 </file>
@@ -75,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -131,7 +131,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +141,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,10 +183,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -191,18 +203,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -521,10 +546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8B6A96-4FD9-478E-8F74-624F2772508D}">
+  <sheetPr codeName="Hoja1">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A2:K233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:J4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,45 +561,50 @@
     <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="6" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="6" t="s">
-        <v>13</v>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -606,10 +639,10 @@
         <v>9</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -619,10 +652,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="10"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -632,10 +665,10 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -645,8 +678,8 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
@@ -658,8 +691,8 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
@@ -671,8 +704,8 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -684,8 +717,8 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -697,8 +730,8 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
@@ -710,8 +743,8 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -723,8 +756,8 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -736,8 +769,8 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -749,8 +782,8 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
@@ -762,8 +795,8 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -775,8 +808,8 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
@@ -788,8 +821,8 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
@@ -801,8 +834,8 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
@@ -814,8 +847,8 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
@@ -827,8 +860,8 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
@@ -840,8 +873,8 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
@@ -853,8 +886,8 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
@@ -866,8 +899,8 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
@@ -879,8 +912,8 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
@@ -892,8 +925,8 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
@@ -905,8 +938,8 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
@@ -918,8 +951,8 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
@@ -931,8 +964,8 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
@@ -944,8 +977,8 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
@@ -957,8 +990,8 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
@@ -970,8 +1003,8 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
@@ -983,8 +1016,8 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
@@ -996,8 +1029,8 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
@@ -1009,8 +1042,8 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
@@ -1022,8 +1055,8 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
@@ -1035,8 +1068,8 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
@@ -1048,8 +1081,8 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
@@ -1061,8 +1094,8 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
@@ -1074,8 +1107,8 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
@@ -1087,8 +1120,8 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
@@ -1100,8 +1133,8 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
@@ -1113,8 +1146,8 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
@@ -1126,8 +1159,8 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
@@ -1139,8 +1172,8 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
@@ -1152,8 +1185,8 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
@@ -1165,8 +1198,8 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
@@ -1178,8 +1211,8 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
@@ -1191,8 +1224,8 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="12"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
@@ -1204,8 +1237,8 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
@@ -1217,8 +1250,8 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
@@ -1230,8 +1263,8 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
@@ -1243,8 +1276,8 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="12"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
@@ -1256,8 +1289,8 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="12"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
@@ -1269,8 +1302,8 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
@@ -1282,8 +1315,8 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="12"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
@@ -1295,8 +1328,8 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="12"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
@@ -1308,8 +1341,8 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="12"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
@@ -1321,8 +1354,8 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="12"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
@@ -1334,8 +1367,8 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
@@ -1347,8 +1380,8 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="12"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
@@ -1360,8 +1393,8 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
@@ -1373,8 +1406,8 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="12"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
@@ -1386,8 +1419,8 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="12"/>
     </row>
     <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
@@ -1399,8 +1432,8 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="12"/>
     </row>
     <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
@@ -1412,8 +1445,8 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
@@ -1425,8 +1458,8 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="12"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
@@ -1438,8 +1471,8 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="12"/>
     </row>
     <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
@@ -1451,8 +1484,8 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="12"/>
     </row>
     <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
@@ -1464,8 +1497,8 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="12"/>
     </row>
     <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
@@ -1477,8 +1510,8 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
@@ -1490,8 +1523,8 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="12"/>
     </row>
     <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
@@ -1503,8 +1536,8 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="12"/>
     </row>
     <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
@@ -1516,8 +1549,8 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="12"/>
     </row>
     <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
@@ -1529,8 +1562,8 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="12"/>
     </row>
     <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
@@ -1542,8 +1575,8 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="12"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
@@ -1555,8 +1588,8 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="12"/>
     </row>
     <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
@@ -1568,8 +1601,8 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="12"/>
     </row>
     <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
@@ -1581,8 +1614,8 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="12"/>
     </row>
     <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
@@ -1594,8 +1627,8 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="12"/>
     </row>
     <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
@@ -1607,8 +1640,8 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="12"/>
     </row>
     <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
@@ -1620,8 +1653,8 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="12"/>
     </row>
     <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
@@ -1633,8 +1666,8 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="12"/>
     </row>
     <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
@@ -1646,8 +1679,8 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="12"/>
     </row>
     <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
@@ -1659,8 +1692,8 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="12"/>
     </row>
     <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
@@ -1672,8 +1705,8 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="12"/>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
@@ -1685,8 +1718,8 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="12"/>
     </row>
     <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
@@ -1698,8 +1731,8 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="12"/>
     </row>
     <row r="91" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
@@ -1711,8 +1744,8 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="12"/>
     </row>
     <row r="92" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
@@ -1724,8 +1757,8 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="12"/>
     </row>
     <row r="93" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
@@ -1737,8 +1770,8 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="12"/>
     </row>
     <row r="94" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
@@ -1750,8 +1783,8 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="12"/>
     </row>
     <row r="95" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
@@ -1763,8 +1796,8 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="12"/>
     </row>
     <row r="96" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
@@ -1776,8 +1809,8 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="12"/>
     </row>
     <row r="97" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
@@ -1789,8 +1822,8 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="12"/>
     </row>
     <row r="98" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
@@ -1802,8 +1835,8 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="12"/>
     </row>
     <row r="99" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
@@ -1815,8 +1848,8 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="12"/>
     </row>
     <row r="100" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
@@ -1828,8 +1861,8 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="12"/>
     </row>
     <row r="101" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
@@ -1841,8 +1874,8 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="12"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
@@ -1854,8 +1887,8 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="12"/>
     </row>
     <row r="103" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
@@ -1867,8 +1900,8 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="12"/>
     </row>
     <row r="104" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
@@ -1880,8 +1913,8 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="12"/>
     </row>
     <row r="105" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
@@ -1893,8 +1926,8 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="12"/>
     </row>
     <row r="106" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
@@ -1906,8 +1939,8 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="12"/>
     </row>
     <row r="107" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
@@ -1919,8 +1952,8 @@
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="12"/>
     </row>
     <row r="108" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
@@ -1932,8 +1965,8 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="12"/>
     </row>
     <row r="109" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
@@ -1945,8 +1978,8 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="12"/>
     </row>
     <row r="110" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
@@ -1958,8 +1991,8 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="12"/>
     </row>
     <row r="111" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
@@ -1971,8 +2004,8 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="12"/>
     </row>
     <row r="112" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
@@ -1984,8 +2017,8 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="12"/>
     </row>
     <row r="113" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
@@ -1997,8 +2030,8 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="12"/>
     </row>
     <row r="114" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
@@ -2010,8 +2043,8 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="12"/>
     </row>
     <row r="115" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
@@ -2023,8 +2056,8 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="12"/>
     </row>
     <row r="116" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
@@ -2036,8 +2069,8 @@
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="12"/>
     </row>
     <row r="117" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
@@ -2049,8 +2082,8 @@
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="12"/>
     </row>
     <row r="118" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
@@ -2062,8 +2095,8 @@
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="12"/>
     </row>
     <row r="119" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
@@ -2075,8 +2108,8 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="12"/>
     </row>
     <row r="120" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
@@ -2088,8 +2121,8 @@
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="12"/>
     </row>
     <row r="121" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
@@ -2101,8 +2134,8 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="12"/>
     </row>
     <row r="122" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
@@ -2114,8 +2147,8 @@
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="12"/>
     </row>
     <row r="123" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
@@ -2127,8 +2160,8 @@
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="12"/>
     </row>
     <row r="124" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
@@ -2140,8 +2173,8 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="12"/>
     </row>
     <row r="125" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
@@ -2153,8 +2186,8 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="12"/>
     </row>
     <row r="126" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
@@ -2166,8 +2199,8 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="12"/>
     </row>
     <row r="127" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
@@ -2179,8 +2212,8 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="12"/>
     </row>
     <row r="128" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
@@ -2192,8 +2225,8 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="12"/>
     </row>
     <row r="129" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
@@ -2205,8 +2238,8 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="12"/>
     </row>
     <row r="130" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
@@ -2218,8 +2251,8 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="12"/>
     </row>
     <row r="131" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
@@ -2231,8 +2264,8 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="12"/>
     </row>
     <row r="132" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
@@ -2244,8 +2277,8 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="12"/>
     </row>
     <row r="133" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
@@ -2257,8 +2290,8 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="12"/>
     </row>
     <row r="134" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
@@ -2270,8 +2303,8 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="12"/>
     </row>
     <row r="135" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
@@ -2283,8 +2316,8 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="12"/>
     </row>
     <row r="136" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
@@ -2296,8 +2329,8 @@
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="12"/>
     </row>
     <row r="137" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
@@ -2309,8 +2342,8 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-      <c r="K137" s="3"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="12"/>
     </row>
     <row r="138" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
@@ -2322,8 +2355,8 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="12"/>
     </row>
     <row r="139" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
@@ -2335,8 +2368,8 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="12"/>
     </row>
     <row r="140" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
@@ -2348,8 +2381,8 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
-      <c r="K140" s="3"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="12"/>
     </row>
     <row r="141" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
@@ -2361,8 +2394,8 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
-      <c r="K141" s="3"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="12"/>
     </row>
     <row r="142" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
@@ -2374,8 +2407,8 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="12"/>
     </row>
     <row r="143" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
@@ -2387,8 +2420,8 @@
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="12"/>
     </row>
     <row r="144" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
@@ -2400,8 +2433,8 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="12"/>
     </row>
     <row r="145" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
@@ -2413,8 +2446,8 @@
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="12"/>
     </row>
     <row r="146" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
@@ -2426,8 +2459,8 @@
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="12"/>
     </row>
     <row r="147" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
@@ -2439,8 +2472,8 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="12"/>
     </row>
     <row r="148" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
@@ -2452,8 +2485,8 @@
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="12"/>
     </row>
     <row r="149" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
@@ -2465,8 +2498,8 @@
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="12"/>
     </row>
     <row r="150" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
@@ -2478,8 +2511,8 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="12"/>
     </row>
     <row r="151" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
@@ -2491,8 +2524,8 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="12"/>
     </row>
     <row r="152" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
@@ -2504,8 +2537,8 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
-      <c r="K152" s="3"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="12"/>
     </row>
     <row r="153" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
@@ -2517,8 +2550,8 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
-      <c r="K153" s="3"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="12"/>
     </row>
     <row r="154" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
@@ -2530,8 +2563,8 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="12"/>
     </row>
     <row r="155" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
@@ -2543,8 +2576,8 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
-      <c r="K155" s="3"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="12"/>
     </row>
     <row r="156" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
@@ -2556,8 +2589,8 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
-      <c r="K156" s="3"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="12"/>
     </row>
     <row r="157" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
@@ -2569,8 +2602,8 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
-      <c r="K157" s="3"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="12"/>
     </row>
     <row r="158" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
@@ -2582,8 +2615,8 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
-      <c r="K158" s="3"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="12"/>
     </row>
     <row r="159" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
@@ -2595,8 +2628,8 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
-      <c r="K159" s="3"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="12"/>
     </row>
     <row r="160" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
@@ -2608,8 +2641,8 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="12"/>
     </row>
     <row r="161" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
@@ -2621,8 +2654,8 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="K161" s="3"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="12"/>
     </row>
     <row r="162" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
@@ -2634,8 +2667,8 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="12"/>
     </row>
     <row r="163" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
@@ -2647,8 +2680,8 @@
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
-      <c r="K163" s="3"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="12"/>
     </row>
     <row r="164" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
@@ -2660,8 +2693,8 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
-      <c r="K164" s="3"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="12"/>
     </row>
     <row r="165" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
@@ -2673,8 +2706,8 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
-      <c r="K165" s="3"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="12"/>
     </row>
     <row r="166" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
@@ -2686,8 +2719,8 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="12"/>
     </row>
     <row r="167" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
@@ -2699,8 +2732,8 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
-      <c r="K167" s="3"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="12"/>
     </row>
     <row r="168" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
@@ -2712,8 +2745,8 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
-      <c r="K168" s="3"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="12"/>
     </row>
     <row r="169" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
@@ -2725,8 +2758,8 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
-      <c r="K169" s="3"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="12"/>
     </row>
     <row r="170" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
@@ -2738,8 +2771,8 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
-      <c r="K170" s="3"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="12"/>
     </row>
     <row r="171" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
@@ -2751,8 +2784,8 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="12"/>
     </row>
     <row r="172" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
@@ -2764,8 +2797,8 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
-      <c r="K172" s="3"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="12"/>
     </row>
     <row r="173" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
@@ -2777,8 +2810,8 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="12"/>
     </row>
     <row r="174" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
@@ -2790,8 +2823,8 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
-      <c r="K174" s="3"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="12"/>
     </row>
     <row r="175" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
@@ -2803,8 +2836,8 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
-      <c r="K175" s="3"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="12"/>
     </row>
     <row r="176" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
@@ -2816,8 +2849,8 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
-      <c r="K176" s="3"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="12"/>
     </row>
     <row r="177" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
@@ -2829,8 +2862,8 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="3"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="12"/>
     </row>
     <row r="178" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
@@ -2842,8 +2875,8 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
-      <c r="K178" s="3"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="12"/>
     </row>
     <row r="179" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
@@ -2855,8 +2888,8 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="12"/>
     </row>
     <row r="180" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
@@ -2868,8 +2901,8 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="12"/>
     </row>
     <row r="181" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
@@ -2881,8 +2914,8 @@
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="12"/>
     </row>
     <row r="182" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
@@ -2894,8 +2927,8 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
-      <c r="K182" s="3"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="12"/>
     </row>
     <row r="183" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
@@ -2907,8 +2940,8 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="12"/>
     </row>
     <row r="184" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
@@ -2920,8 +2953,8 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="3"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="12"/>
     </row>
     <row r="185" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
@@ -2933,8 +2966,8 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="12"/>
     </row>
     <row r="186" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
@@ -2946,8 +2979,8 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="12"/>
     </row>
     <row r="187" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
@@ -2959,8 +2992,8 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="3"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="12"/>
     </row>
     <row r="188" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
@@ -2972,8 +3005,8 @@
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="12"/>
     </row>
     <row r="189" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
@@ -2985,8 +3018,8 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="12"/>
     </row>
     <row r="190" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
@@ -2998,8 +3031,8 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="12"/>
     </row>
     <row r="191" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
@@ -3011,8 +3044,8 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="12"/>
     </row>
     <row r="192" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
@@ -3024,8 +3057,8 @@
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="12"/>
     </row>
     <row r="193" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
@@ -3037,8 +3070,8 @@
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="12"/>
     </row>
     <row r="194" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
@@ -3050,8 +3083,8 @@
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="12"/>
     </row>
     <row r="195" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
@@ -3063,8 +3096,8 @@
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="12"/>
     </row>
     <row r="196" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
@@ -3076,8 +3109,8 @@
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="12"/>
     </row>
     <row r="197" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
@@ -3089,8 +3122,8 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="12"/>
     </row>
     <row r="198" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
@@ -3102,8 +3135,8 @@
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="12"/>
     </row>
     <row r="199" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
@@ -3115,8 +3148,8 @@
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="12"/>
     </row>
     <row r="200" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
@@ -3128,8 +3161,8 @@
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="12"/>
     </row>
     <row r="201" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
@@ -3141,8 +3174,8 @@
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="12"/>
     </row>
     <row r="202" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
@@ -3154,8 +3187,8 @@
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="12"/>
     </row>
     <row r="203" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
@@ -3167,8 +3200,8 @@
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
-      <c r="K203" s="3"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="12"/>
     </row>
     <row r="204" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
@@ -3180,8 +3213,8 @@
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
-      <c r="K204" s="3"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="12"/>
     </row>
     <row r="205" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
@@ -3193,8 +3226,8 @@
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
-      <c r="K205" s="3"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="12"/>
     </row>
     <row r="206" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
@@ -3206,8 +3239,8 @@
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="12"/>
     </row>
     <row r="207" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
@@ -3219,8 +3252,8 @@
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
-      <c r="K207" s="3"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="12"/>
     </row>
     <row r="208" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
@@ -3232,8 +3265,8 @@
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
-      <c r="K208" s="3"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="12"/>
     </row>
     <row r="209" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
@@ -3245,8 +3278,8 @@
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
-      <c r="K209" s="3"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="12"/>
     </row>
     <row r="210" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
@@ -3258,8 +3291,8 @@
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="12"/>
     </row>
     <row r="211" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
@@ -3271,8 +3304,8 @@
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
+      <c r="J211" s="11"/>
+      <c r="K211" s="12"/>
     </row>
     <row r="212" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
@@ -3284,8 +3317,8 @@
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
-      <c r="K212" s="3"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="12"/>
     </row>
     <row r="213" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
@@ -3297,8 +3330,8 @@
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="12"/>
     </row>
     <row r="214" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
@@ -3310,8 +3343,8 @@
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
+      <c r="J214" s="11"/>
+      <c r="K214" s="12"/>
     </row>
     <row r="215" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
@@ -3323,8 +3356,8 @@
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="12"/>
     </row>
     <row r="216" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
@@ -3336,8 +3369,8 @@
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
-      <c r="K216" s="3"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="12"/>
     </row>
     <row r="217" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
@@ -3349,8 +3382,8 @@
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
+      <c r="J217" s="11"/>
+      <c r="K217" s="12"/>
     </row>
     <row r="218" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
@@ -3362,8 +3395,8 @@
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
-      <c r="K218" s="3"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="12"/>
     </row>
     <row r="219" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
@@ -3375,8 +3408,8 @@
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="12"/>
     </row>
     <row r="220" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
@@ -3388,8 +3421,8 @@
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="12"/>
     </row>
     <row r="221" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
@@ -3401,8 +3434,8 @@
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="12"/>
     </row>
     <row r="222" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
@@ -3414,8 +3447,8 @@
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="12"/>
     </row>
     <row r="223" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
@@ -3427,8 +3460,8 @@
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="12"/>
     </row>
     <row r="224" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3"/>
@@ -3440,8 +3473,8 @@
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
-      <c r="K224" s="3"/>
+      <c r="J224" s="11"/>
+      <c r="K224" s="12"/>
     </row>
     <row r="225" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3"/>
@@ -3453,8 +3486,8 @@
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
-      <c r="J225" s="3"/>
-      <c r="K225" s="3"/>
+      <c r="J225" s="11"/>
+      <c r="K225" s="12"/>
     </row>
     <row r="226" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
@@ -3466,8 +3499,8 @@
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
+      <c r="J226" s="11"/>
+      <c r="K226" s="12"/>
     </row>
     <row r="227" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3"/>
@@ -3479,8 +3512,8 @@
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
+      <c r="J227" s="11"/>
+      <c r="K227" s="12"/>
     </row>
     <row r="228" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3"/>
@@ -3492,8 +3525,8 @@
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
+      <c r="J228" s="11"/>
+      <c r="K228" s="12"/>
     </row>
     <row r="229" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3"/>
@@ -3505,8 +3538,8 @@
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="12"/>
     </row>
     <row r="230" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3"/>
@@ -3518,8 +3551,8 @@
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
+      <c r="J230" s="11"/>
+      <c r="K230" s="12"/>
     </row>
     <row r="231" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3"/>
@@ -3531,8 +3564,8 @@
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
-      <c r="K231" s="3"/>
+      <c r="J231" s="11"/>
+      <c r="K231" s="12"/>
     </row>
     <row r="232" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3"/>
@@ -3544,18 +3577,11 @@
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
+      <c r="J232" s="11"/>
+      <c r="K232" s="12"/>
     </row>
     <row r="233" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Mercastock/Resources/TABLASMERCASTOCK.xlsx
+++ b/Mercastock/Resources/TABLASMERCASTOCK.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\MercastockVSTO\Mercastock\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Alvarez\Documents\Visual Studio 2015\Mercastock\MercaStockVSTO\Mercastock\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="8115" xr2:uid="{36A4FD31-576B-4AA9-9F34-0A0F0044FAF0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DetalleDepartamento" sheetId="1" r:id="rId1"/>
+    <sheet name="AjusteInventario" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AjusteInventario!$A$1:$A$1</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Fecha del ultimo ajuste</t>
   </si>
@@ -69,15 +73,48 @@
   <si>
     <t>Producto Alerta</t>
   </si>
+  <si>
+    <t>Fecha de Ultimo Inventario</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Cantidad en sistema al Momento del Ultimo Inventario</t>
+  </si>
+  <si>
+    <t>Cantidad Fisica al momento del Inventario</t>
+  </si>
+  <si>
+    <t>Diferencia a Ajustar</t>
+  </si>
+  <si>
+    <t>Costo Diferencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cantidad actual en el Sistema</t>
+  </si>
+  <si>
+    <t>Ajustar Diferencia</t>
+  </si>
+  <si>
+    <t>RE-CONTEO</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +167,23 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +208,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -180,13 +238,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -230,14 +317,308 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Moneda 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Moneda 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+  <cellStyles count="4">
+    <cellStyle name="Currency 2" xfId="3"/>
+    <cellStyle name="Moneda 2" xfId="2"/>
+    <cellStyle name="Moneda 3" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -249,8 +630,29 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B1:M2" insertRow="1" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="B1:M2"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Fecha de Ultimo Inventario" dataDxfId="11"/>
+    <tableColumn id="2" name="Clave" dataDxfId="10"/>
+    <tableColumn id="3" name="Descripcion" dataDxfId="9"/>
+    <tableColumn id="4" name="Costo" dataDxfId="8"/>
+    <tableColumn id="5" name="Cantidad en sistema al Momento del Ultimo Inventario" dataDxfId="7"/>
+    <tableColumn id="6" name="Cantidad Fisica al momento del Inventario" dataDxfId="6"/>
+    <tableColumn id="7" name="Diferencia a Ajustar" dataDxfId="5"/>
+    <tableColumn id="8" name="Costo Diferencia" dataDxfId="4"/>
+    <tableColumn id="9" name=" Cantidad actual en el Sistema" dataDxfId="3"/>
+    <tableColumn id="10" name="Ajustar Diferencia" dataDxfId="2"/>
+    <tableColumn id="11" name="RE-CONTEO" dataDxfId="1"/>
+    <tableColumn id="12" name="Producto Alerta" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -545,28 +947,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8B6A96-4FD9-478E-8F74-624F2772508D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A2:K233"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="6" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="7" width="11.375" style="1"/>
+    <col min="8" max="8" width="11.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="6" customWidth="1"/>
+    <col min="11" max="12" width="11.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -607,7 +1009,7 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3585,4 +3987,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="13" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="46.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13"/>
+    <col min="6" max="6" width="8.375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="13" customWidth="1"/>
+    <col min="8" max="8" width="8" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="13" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="13" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>